--- a/docs/Taobao.xlsx
+++ b/docs/Taobao.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\projectevohci2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\projectevohci2022\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D977D-737C-4C0C-A071-16970238D52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F334371-C323-42A4-A9E9-8735491E853C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5DEF5D5-F632-4EAB-936B-C72F01795D41}"/>
   </bookViews>
   <sheets>
-    <sheet name="To be bought" sheetId="1" r:id="rId1"/>
+    <sheet name="To Be Bought" sheetId="3" r:id="rId1"/>
     <sheet name="History of purchaces" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Part Type</t>
   </si>
@@ -85,28 +85,25 @@
     <t>Decription</t>
   </si>
   <si>
-    <t>Motor</t>
-  </si>
-  <si>
-    <t>MT2208 II KV1500</t>
-  </si>
-  <si>
-    <t>Brushless motor for dribbler</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.13.36e130ccCkvDrw&amp;id=522211177920&amp;ns=1&amp;abbucket=1#detail</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Delievery Charge (¥)</t>
-  </si>
-  <si>
-    <t>Not very certain the difference between 反螺纹 and 正螺纹</t>
-  </si>
-  <si>
-    <t>Coupler</t>
+    <t>Aluminium Stands</t>
+  </si>
+  <si>
+    <t>Stands from Layer 1 to 2</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.1df82e8d7MtmSg&amp;id=544763051390&amp;_u=230vu5iq6340</t>
+  </si>
+  <si>
+    <t>Stands from Layer 2 to 3</t>
+  </si>
+  <si>
+    <t>Metal Nuts</t>
+  </si>
+  <si>
+    <t>Headless screws</t>
+  </si>
+  <si>
+    <t>M3*37 D=5mm</t>
   </si>
 </sst>
 </file>
@@ -115,7 +112,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="[$¥-804]#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -175,27 +172,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -511,229 +498,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5129A6F9-E80A-4320-A0B1-E9AFB4757D93}">
-  <dimension ref="A1:K28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC7FA9B-C4AD-4CF7-BADA-B05262368D3C}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>SUM(E2*F2)</f>
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3">
-        <v>95</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
+        <f>SUM(H2/5)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>SUM(E3*F3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>SUM(H3/5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3">
-        <f>SUM(F2*G2+I2)</f>
-        <v>108</v>
-      </c>
-      <c r="K2" s="4">
-        <f>SUM(J2/5)</f>
-        <v>21.6</v>
+      <c r="B4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>SUM(E4*F4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f>SUM(H4/5)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="K3" s="4"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>SUM(E5*F5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <f>SUM(H5/5)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="K4" s="4"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>SUM(E6*F6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <f>SUM(H6/5)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="3"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="3"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="3"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="3"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="3"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="3"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="3"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="3"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="3"/>
-      <c r="K28" s="4"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f>SUM(E7*F7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f>SUM(H7/5)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="detail" xr:uid="{EF3A151E-753C-44D2-B7AC-21C09A32A75D}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{F8C7B461-9E6C-40B0-9A3A-F341FCAFF593}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{3035A5C9-B9E7-4744-94EA-F7F4C844D550}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
